--- a/寄存器属性与信号对应关系.xlsx
+++ b/寄存器属性与信号对应关系.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IC\scripts\reg_gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8D2B77-625B-4554-A935-BEE52FDAC086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF91D9C-20CF-413F-BB45-64D18C8B9318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,28 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reg_i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reg_o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reg_clr_o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reg_set_o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reg_rld_i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,12 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>RO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reg_tog_o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W0C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,6 +128,26 @@
   </si>
   <si>
     <t>RSHS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_rld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_clr_q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_clr_set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +494,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -519,37 +513,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -558,11 +548,9 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -572,15 +560,11 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -588,31 +572,23 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -620,83 +596,59 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -704,31 +656,23 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -736,80 +680,58 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -818,12 +740,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -832,15 +752,11 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -848,12 +764,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -862,12 +776,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -876,39 +788,27 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
